--- a/biology/Médecine/1835_en_santé_et_médecine/1835_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1835_en_santé_et_médecine/1835_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1835_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1835_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1835 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1835_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1835_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Juillet-août : épidémie de choléra à Marseille[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Juillet-août : épidémie de choléra à Marseille.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1835_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1835_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,13 +555,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>23 mai : Robert Graves (1797-1853) décrit pour la première fois le goitre exophtalmique[2], également appelé maladie de Graves, de Basedow ou de Graves-Basedow.
-Octobre : la mission lyonnaise de secours contre le choléra de Marseille publie son rapport sur l'épidémie[1].
-Jacques-Martin Berthelot (1799-1864) publie ses observations sur le choléra de Paris[3].
-Jean-Baptiste Bouillaud (1796-1881) publie le Traité clinique des maladies du cœur, une des œuvres qui participent à la transformation de la médecine en une science positive[4].
-Le médecin Pierre-Charles Alexandre Louis (1787-1872) publie ses Recherches sur les effets de la saignée dans quelques maladies inflammatoires et sur l'action de l'émétique et des vésicatoires dans la pneumonie ; il y réalise des études de cas pour démontrer l'inefficacité de la saignée[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23 mai : Robert Graves (1797-1853) décrit pour la première fois le goitre exophtalmique, également appelé maladie de Graves, de Basedow ou de Graves-Basedow.
+Octobre : la mission lyonnaise de secours contre le choléra de Marseille publie son rapport sur l'épidémie.
+Jacques-Martin Berthelot (1799-1864) publie ses observations sur le choléra de Paris.
+Jean-Baptiste Bouillaud (1796-1881) publie le Traité clinique des maladies du cœur, une des œuvres qui participent à la transformation de la médecine en une science positive.
+Le médecin Pierre-Charles Alexandre Louis (1787-1872) publie ses Recherches sur les effets de la saignée dans quelques maladies inflammatoires et sur l'action de l'émétique et des vésicatoires dans la pneumonie ; il y réalise des études de cas pour démontrer l'inefficacité de la saignée.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1835_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1835_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Léonard Poiseuille obtient le prix Montyon pour la troisième fois.
 Jean-Nicolas Gannal reçoit une médaille d'encouragement de la part du jury du prix Montyon.</t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1835_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1835_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>16 mars : Valentin Magnan (mort en 1916), psychiatre français.
 Août : Charles Sabin Taft (mort en 1900), l'un des médecins qui ont assisté Abraham Lincoln lors de son assassinat.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1835_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1835_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,10 +658,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>4 février : François-Emmanuel Fodéré (né en 1764), médecin et botaniste, pionnier de la médecine légale.
-21 novembre : Hanaoka Seishū (né en 1760), chirurgien japonais[6].</t>
+21 novembre : Hanaoka Seishū (né en 1760), chirurgien japonais.</t>
         </is>
       </c>
     </row>
